--- a/Covid cases in India.xlsx
+++ b/Covid cases in India.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atul Harsha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Machine Learning\NOVEL CORONAVIRUS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499AE727-1500-48A2-B11F-6ABE6D2C7295}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEC3887-CBC3-4C37-965F-1140BE7007B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="390" windowWidth="20460" windowHeight="10890" xr2:uid="{C487D297-57E3-C44C-8502-9D641228CF81}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C487D297-57E3-C44C-8502-9D641228CF81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
   <si>
     <t>S. No.</t>
   </si>
@@ -144,17 +142,20 @@
     <t>Bihar</t>
   </si>
   <si>
+    <t>Mizoram</t>
+  </si>
+  <si>
+    <t>Goa</t>
+  </si>
+  <si>
     <t>Manipur</t>
-  </si>
-  <si>
-    <t>Mizoram</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -184,6 +185,13 @@
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -232,7 +240,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -467,6 +475,17 @@
       <right style="medium">
         <color rgb="FFAAAAAA"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFAAAAAA"/>
+      </right>
       <top style="medium">
         <color rgb="FFDDDDDD"/>
       </top>
@@ -589,11 +608,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -637,41 +700,89 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -685,32 +796,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1026,536 +1123,560 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8BDFBC-EE0E-E148-97D8-C9605167DB8E}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
-    <col min="2" max="2" width="39.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="21"/>
+    <col min="2" max="2" width="27.08203125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="34.75" style="21" customWidth="1"/>
+    <col min="4" max="4" width="36.08203125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="14.08203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A2" s="20">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="1:6" ht="16" thickBot="1">
+      <c r="A2" s="33">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="16">
+        <v>12</v>
+      </c>
+      <c r="D2" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16">
+        <v>1</v>
+      </c>
+      <c r="F2" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" thickBot="1">
+      <c r="A3" s="34">
+        <v>2</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="18">
+        <v>6</v>
+      </c>
+      <c r="D3" s="18">
+        <v>0</v>
+      </c>
+      <c r="E3" s="18">
+        <v>0</v>
+      </c>
+      <c r="F3" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" thickBot="1">
+      <c r="A4" s="33">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="16">
+        <v>38</v>
+      </c>
+      <c r="D4" s="16">
+        <v>1</v>
+      </c>
+      <c r="E4" s="16">
+        <v>6</v>
+      </c>
+      <c r="F4" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" thickBot="1">
+      <c r="A5" s="34">
+        <v>4</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="18">
+        <v>43</v>
+      </c>
+      <c r="D5" s="18">
+        <v>0</v>
+      </c>
+      <c r="E5" s="18">
+        <v>0</v>
+      </c>
+      <c r="F5" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16" thickBot="1">
+      <c r="A6" s="33">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="16">
+        <v>16</v>
+      </c>
+      <c r="D6" s="16">
+        <v>14</v>
+      </c>
+      <c r="E6" s="16">
+        <v>11</v>
+      </c>
+      <c r="F6" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16" thickBot="1">
+      <c r="A7" s="34">
+        <v>6</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="18">
+        <v>4</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0</v>
+      </c>
+      <c r="F7" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16" thickBot="1">
+      <c r="A8" s="33">
+        <v>7</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="16">
+        <v>20</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16">
+        <v>3</v>
+      </c>
+      <c r="F8" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16" thickBot="1">
+      <c r="A9" s="34">
+        <v>8</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="18">
+        <v>131</v>
+      </c>
+      <c r="D9" s="18">
+        <v>7</v>
+      </c>
+      <c r="E9" s="18">
+        <v>11</v>
+      </c>
+      <c r="F9" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16" thickBot="1">
+      <c r="A10" s="33">
         <v>9</v>
       </c>
-      <c r="D2" s="15">
-        <v>0</v>
-      </c>
-      <c r="E2" s="15">
-        <v>0</v>
-      </c>
-      <c r="F2" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A3" s="22">
+      <c r="B10" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="16">
+        <v>23</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+      <c r="F10" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16" thickBot="1">
+      <c r="A11" s="34">
+        <v>10</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="18">
+        <v>144</v>
+      </c>
+      <c r="D11" s="18">
+        <v>3</v>
+      </c>
+      <c r="E11" s="18">
+        <v>15</v>
+      </c>
+      <c r="F11" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16" thickBot="1">
+      <c r="A12" s="33">
+        <v>11</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="16">
+        <v>3</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0</v>
+      </c>
+      <c r="F12" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16" thickBot="1">
+      <c r="A13" s="34">
+        <v>12</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="18">
+        <v>1</v>
+      </c>
+      <c r="D13" s="18">
+        <v>0</v>
+      </c>
+      <c r="E13" s="18">
+        <v>0</v>
+      </c>
+      <c r="F13" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16" thickBot="1">
+      <c r="A14" s="33">
+        <v>13</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="16">
+        <v>29</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+      <c r="F14" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16" thickBot="1">
+      <c r="A15" s="34">
+        <v>14</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="18">
+        <v>41</v>
+      </c>
+      <c r="D15" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="E15" s="18">
+        <v>3</v>
+      </c>
+      <c r="F15" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16" thickBot="1">
+      <c r="A16" s="33">
+        <v>15</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="16">
+        <v>32</v>
+      </c>
+      <c r="D16" s="16">
+        <v>3</v>
+      </c>
+      <c r="E16" s="16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16" thickBot="1">
+      <c r="A17" s="34">
+        <v>16</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="18">
+        <v>34</v>
+      </c>
+      <c r="D17" s="18">
+        <v>11</v>
+      </c>
+      <c r="E17" s="18">
+        <v>1</v>
+      </c>
+      <c r="F17" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16" thickBot="1">
+      <c r="A18" s="33">
+        <v>17</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="16">
+        <v>7</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0</v>
+      </c>
+      <c r="E18" s="16">
+        <v>0</v>
+      </c>
+      <c r="F18" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16" thickBot="1">
+      <c r="A19" s="34">
+        <v>18</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="18">
+        <v>18</v>
+      </c>
+      <c r="D19" s="18">
+        <v>0</v>
+      </c>
+      <c r="E19" s="18">
+        <v>1</v>
+      </c>
+      <c r="F19" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16" thickBot="1">
+      <c r="A20" s="33">
+        <v>19</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="16">
+        <v>13</v>
+      </c>
+      <c r="D20" s="16">
+        <v>0</v>
+      </c>
+      <c r="E20" s="16">
+        <v>0</v>
+      </c>
+      <c r="F20" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16" thickBot="1">
+      <c r="A21" s="34">
+        <v>20</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="18">
+        <v>42</v>
+      </c>
+      <c r="D21" s="18">
+        <v>1</v>
+      </c>
+      <c r="E21" s="18">
+        <v>11</v>
+      </c>
+      <c r="F21" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16" thickBot="1">
+      <c r="A22" s="33">
+        <v>21</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="16">
+        <v>4</v>
+      </c>
+      <c r="D22" s="16">
+        <v>0</v>
+      </c>
+      <c r="E22" s="16">
+        <v>0</v>
+      </c>
+      <c r="F22" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16" thickBot="1">
+      <c r="A23" s="35">
+        <v>22</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="19">
+        <v>11</v>
+      </c>
+      <c r="D23" s="19">
+        <v>0</v>
+      </c>
+      <c r="E23" s="19">
+        <v>0</v>
+      </c>
+      <c r="F23" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="36">
+        <v>23</v>
+      </c>
+      <c r="B24" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="16">
-        <v>3</v>
-      </c>
-      <c r="D3" s="16">
-        <v>0</v>
-      </c>
-      <c r="E3" s="16">
-        <v>0</v>
-      </c>
-      <c r="F3" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A4" s="20">
-        <v>3</v>
-      </c>
-      <c r="B4" s="15" t="s">
+      <c r="C24" s="20">
+        <v>7</v>
+      </c>
+      <c r="D24" s="51">
+        <v>0</v>
+      </c>
+      <c r="E24" s="50">
+        <v>0</v>
+      </c>
+      <c r="F24" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="49" customFormat="1" ht="11.5">
+      <c r="A25" s="48">
+        <v>24</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="48">
+        <v>1</v>
+      </c>
+      <c r="D25" s="48">
+        <v>0</v>
+      </c>
+      <c r="E25" s="48">
+        <v>0</v>
+      </c>
+      <c r="F25" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="49" customFormat="1" ht="11.5">
+      <c r="A26" s="48">
         <v>25</v>
       </c>
-      <c r="C4" s="15">
-        <v>1</v>
-      </c>
-      <c r="D4" s="15">
-        <v>0</v>
-      </c>
-      <c r="E4" s="15">
-        <v>0</v>
-      </c>
-      <c r="F4" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A5" s="22">
-        <v>4</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="16">
-        <v>30</v>
-      </c>
-      <c r="D5" s="16">
-        <v>1</v>
-      </c>
-      <c r="E5" s="16">
+      <c r="B26" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="48">
         <v>6</v>
       </c>
-      <c r="F5" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A6" s="20">
-        <v>5</v>
-      </c>
-      <c r="B6" s="15" t="s">
+      <c r="D26" s="48">
+        <v>0</v>
+      </c>
+      <c r="E26" s="48">
+        <v>0</v>
+      </c>
+      <c r="F26" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="49" customFormat="1" ht="11.5">
+      <c r="A27" s="48">
         <v>26</v>
       </c>
-      <c r="C6" s="15">
-        <v>32</v>
-      </c>
-      <c r="D6" s="15">
-        <v>1</v>
-      </c>
-      <c r="E6" s="15">
-        <v>0</v>
-      </c>
-      <c r="F6" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A7" s="22">
-        <v>6</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="16">
-        <v>14</v>
-      </c>
-      <c r="D7" s="16">
-        <v>14</v>
-      </c>
-      <c r="E7" s="16">
-        <v>11</v>
-      </c>
-      <c r="F7" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A8" s="20">
-        <v>7</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="15">
-        <v>3</v>
-      </c>
-      <c r="D8" s="15">
-        <v>0</v>
-      </c>
-      <c r="E8" s="15">
-        <v>0</v>
-      </c>
-      <c r="F8" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A9" s="22">
-        <v>8</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="16">
-        <v>41</v>
-      </c>
-      <c r="D9" s="16">
-        <v>0</v>
-      </c>
-      <c r="E9" s="16">
-        <v>3</v>
-      </c>
-      <c r="F9" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A10" s="20">
-        <v>9</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="15">
-        <v>101</v>
-      </c>
-      <c r="D10" s="15">
-        <v>8</v>
-      </c>
-      <c r="E10" s="15">
-        <v>4</v>
-      </c>
-      <c r="F10" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A11" s="22">
-        <v>10</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="16">
-        <v>9</v>
-      </c>
-      <c r="D11" s="16">
-        <v>0</v>
-      </c>
-      <c r="E11" s="16">
-        <v>0</v>
-      </c>
-      <c r="F11" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A12" s="20">
-        <v>11</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="15">
-        <v>98</v>
-      </c>
-      <c r="D12" s="15">
-        <v>3</v>
-      </c>
-      <c r="E12" s="15">
-        <v>0</v>
-      </c>
-      <c r="F12" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A13" s="22">
-        <v>12</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="16">
-        <v>1</v>
-      </c>
-      <c r="D13" s="16">
-        <v>0</v>
-      </c>
-      <c r="E13" s="16">
-        <v>0</v>
-      </c>
-      <c r="F13" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A14" s="20">
-        <v>13</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="15">
-        <v>1</v>
-      </c>
-      <c r="D14" s="15">
-        <v>0</v>
-      </c>
-      <c r="E14" s="15">
-        <v>0</v>
-      </c>
-      <c r="F14" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A15" s="22">
-        <v>14</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="16">
-        <v>2</v>
-      </c>
-      <c r="D15" s="16">
-        <v>0</v>
-      </c>
-      <c r="E15" s="16">
-        <v>0</v>
-      </c>
-      <c r="F15" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A16" s="20">
-        <v>15</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="15">
-        <v>1</v>
-      </c>
-      <c r="D16" s="15">
-        <v>0</v>
-      </c>
-      <c r="E16" s="15">
-        <v>0</v>
-      </c>
-      <c r="F16" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A17" s="22">
-        <v>16</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="16">
-        <v>29</v>
-      </c>
-      <c r="D17" s="16">
-        <v>0</v>
-      </c>
-      <c r="E17" s="16">
-        <v>0</v>
-      </c>
-      <c r="F17" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A18" s="20">
-        <v>17</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="15">
-        <v>30</v>
-      </c>
-      <c r="D18" s="15">
-        <v>2</v>
-      </c>
-      <c r="E18" s="15">
-        <v>3</v>
-      </c>
-      <c r="F18" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A19" s="22">
-        <v>18</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="16">
-        <v>16</v>
-      </c>
-      <c r="D19" s="16">
-        <v>2</v>
-      </c>
-      <c r="E19" s="16">
-        <v>1</v>
-      </c>
-      <c r="F19" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A20" s="20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="15">
-        <v>25</v>
-      </c>
-      <c r="D20" s="15">
-        <v>10</v>
-      </c>
-      <c r="E20" s="15">
-        <v>1</v>
-      </c>
-      <c r="F20" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A21" s="22">
-        <v>20</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="16">
-        <v>7</v>
-      </c>
-      <c r="D21" s="16">
-        <v>0</v>
-      </c>
-      <c r="E21" s="16">
-        <v>0</v>
-      </c>
-      <c r="F21" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A22" s="20">
-        <v>21</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="15">
-        <v>7</v>
-      </c>
-      <c r="D22" s="15">
-        <v>0</v>
-      </c>
-      <c r="E22" s="15">
-        <v>1</v>
-      </c>
-      <c r="F22" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A23" s="24">
-        <v>22</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="25">
-        <v>13</v>
-      </c>
-      <c r="D23" s="25">
-        <v>0</v>
-      </c>
-      <c r="E23" s="25">
-        <v>0</v>
-      </c>
-      <c r="F23" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A24" s="20">
-        <v>23</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="15">
-        <v>34</v>
-      </c>
-      <c r="D24" s="15">
-        <v>1</v>
-      </c>
-      <c r="E24" s="15">
-        <v>11</v>
-      </c>
-      <c r="F24" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A25" s="22">
-        <v>24</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="16">
-        <v>3</v>
-      </c>
-      <c r="D25" s="16">
-        <v>1</v>
-      </c>
-      <c r="E25" s="16">
-        <v>0</v>
-      </c>
-      <c r="F25" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A26" s="37">
-        <v>25</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="38">
-        <v>9</v>
-      </c>
-      <c r="D26" s="38">
-        <v>0</v>
-      </c>
-      <c r="E26" s="38">
-        <v>0</v>
-      </c>
-      <c r="F26" s="39">
-        <v>1</v>
+      <c r="B27" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="48">
+        <v>1</v>
+      </c>
+      <c r="D27" s="48">
+        <v>0</v>
+      </c>
+      <c r="E27" s="48">
+        <v>0</v>
+      </c>
+      <c r="F27" s="48">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1572,63 +1693,63 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.5"/>
   <sheetData>
     <row r="1" spans="1:13" ht="44.25" customHeight="1">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="35" t="s">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="27" t="s">
+      <c r="H1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="43" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="43" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="45.75" thickBot="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
+    <row r="2" spans="1:13" ht="43" thickBot="1">
+      <c r="A2" s="40"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
       <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
+      <c r="F2" s="46"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
       <c r="L2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="28"/>
+      <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" ht="29.25" customHeight="1" thickBot="1">
       <c r="A3" s="5">
@@ -1668,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="30.75" thickBot="1">
+    <row r="4" spans="1:13" ht="28.5" thickBot="1">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -1706,7 +1827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16.5" thickBot="1">
+    <row r="5" spans="1:13" ht="16" thickBot="1">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -1744,7 +1865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="29.25" thickBot="1">
+    <row r="6" spans="1:13" ht="28.5" thickBot="1">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -1782,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16.5" thickBot="1">
+    <row r="7" spans="1:13" ht="16" thickBot="1">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -1820,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="30.75" thickBot="1">
+    <row r="8" spans="1:13" ht="28.5" thickBot="1">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -1858,7 +1979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16.5" thickBot="1">
+    <row r="9" spans="1:13" ht="16" thickBot="1">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1896,7 +2017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="30.75" thickBot="1">
+    <row r="10" spans="1:13" ht="28.5" thickBot="1">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -1934,7 +2055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="29.25" thickBot="1">
+    <row r="11" spans="1:13" ht="16" thickBot="1">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1972,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="30.75" thickBot="1">
+    <row r="12" spans="1:13" ht="28.5" thickBot="1">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -2010,7 +2131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="29.25" thickBot="1">
+    <row r="13" spans="1:13" ht="28.5" thickBot="1">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -2048,7 +2169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="72" thickBot="1">
+    <row r="14" spans="1:13" ht="84.5" thickBot="1">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -2086,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="43.5" thickBot="1">
+    <row r="15" spans="1:13" ht="42.5" thickBot="1">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -2124,7 +2245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="30.75" thickBot="1">
+    <row r="16" spans="1:13" ht="28.5" thickBot="1">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -2162,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="75.75" thickBot="1">
+    <row r="17" spans="1:13" ht="70.5" thickBot="1">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -2201,10 +2322,10 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="45" customHeight="1" thickBot="1">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="32"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="9">
         <v>104</v>
       </c>
@@ -2236,7 +2357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="60.75" thickBot="1">
+    <row r="19" spans="1:13" ht="56.5" thickBot="1">
       <c r="H19" s="12">
         <v>17</v>
       </c>
@@ -2256,7 +2377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="30.75" thickBot="1">
+    <row r="20" spans="1:13" ht="28.5" thickBot="1">
       <c r="H20" s="13">
         <v>18</v>
       </c>
@@ -2276,7 +2397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="30.75" thickBot="1">
+    <row r="21" spans="1:13" ht="28.5" thickBot="1">
       <c r="H21" s="12">
         <v>19</v>
       </c>
@@ -2296,7 +2417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="30.75" thickBot="1">
+    <row r="22" spans="1:13" ht="28.5" thickBot="1">
       <c r="H22" s="13">
         <v>20</v>
       </c>
@@ -2318,17 +2439,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
